--- a/adcode.xlsx
+++ b/adcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14240"/>
+    <workbookView windowWidth="25600" windowHeight="10610"/>
   </bookViews>
   <sheets>
     <sheet name="省市区adcode与经纬度映射表utf8" sheetId="1" r:id="rId1"/>
@@ -9562,7 +9562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -9583,9 +9583,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9600,7 +9682,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9638,90 +9720,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9736,7 +9736,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9748,7 +9766,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9760,13 +9814,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9778,19 +9844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9808,43 +9868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9856,55 +9886,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9916,7 +9904,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9945,24 +9945,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -9978,6 +9960,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9989,6 +9982,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10011,18 +10022,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -10032,205 +10032,208 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -10427,7 +10430,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -10436,7 +10439,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -10715,17 +10718,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3727"/>
+  <dimension ref="A1:G3727"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A2576" workbookViewId="0">
+      <selection activeCell="B2610" sqref="B2610"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.3818181818182" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.84615384615385" customWidth="1"/>
+    <col min="1" max="1" width="7.84545454545455" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="4" width="12.9230769230769" customWidth="1"/>
+    <col min="3" max="4" width="12.9272727272727" customWidth="1"/>
+    <col min="6" max="6" width="11.7272727272727"/>
+    <col min="7" max="7" width="10.5454545454545"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -47968,7 +47973,7 @@
         <v>30.56065</v>
       </c>
     </row>
-    <row r="2661" spans="1:4">
+    <row r="2661" spans="1:7">
       <c r="A2661">
         <v>510113</v>
       </c>
@@ -47981,8 +47986,14 @@
       <c r="D2661">
         <v>30.883438</v>
       </c>
-    </row>
-    <row r="2662" spans="1:4">
+      <c r="F2661">
+        <v>104.342154</v>
+      </c>
+      <c r="G2661">
+        <v>30.838113</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:7">
       <c r="A2662">
         <v>510114</v>
       </c>
@@ -47994,6 +48005,12 @@
       </c>
       <c r="D2662">
         <v>30.824223</v>
+      </c>
+      <c r="F2662">
+        <v>104.111543</v>
+      </c>
+      <c r="G2662">
+        <v>30.871078</v>
       </c>
     </row>
     <row r="2663" spans="1:4">
@@ -48038,7 +48055,7 @@
         <v>30.573243</v>
       </c>
     </row>
-    <row r="2666" spans="1:4">
+    <row r="2666" spans="1:7">
       <c r="A2666">
         <v>510124</v>
       </c>
@@ -48050,6 +48067,12 @@
       </c>
       <c r="D2666">
         <v>30.808752</v>
+      </c>
+      <c r="F2666">
+        <v>103.81143</v>
+      </c>
+      <c r="G2666">
+        <v>30.812588</v>
       </c>
     </row>
     <row r="2667" spans="1:4">
@@ -49998,7 +50021,7 @@
         <v>30.275619</v>
       </c>
     </row>
-    <row r="2806" spans="1:4">
+    <row r="2806" spans="1:6">
       <c r="A2806">
         <v>512081</v>
       </c>
@@ -50011,6 +50034,7 @@
       <c r="D2806">
         <v>30.390666</v>
       </c>
+      <c r="F2806" s="2"/>
     </row>
     <row r="2807" spans="1:4">
       <c r="A2807">

--- a/adcode.xlsx
+++ b/adcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10610"/>
+    <workbookView windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="省市区adcode与经纬度映射表utf8" sheetId="1" r:id="rId1"/>
@@ -9562,7 +9562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -9583,91 +9583,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9682,7 +9600,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9720,8 +9638,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9736,13 +9736,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9754,79 +9772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9838,19 +9784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9868,7 +9808,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9880,19 +9892,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9904,19 +9916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9945,6 +9945,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -9960,17 +9978,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9982,24 +9989,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10022,7 +10011,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -10032,208 +10032,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -10430,7 +10427,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -10439,7 +10436,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -10718,19 +10715,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3727"/>
+  <dimension ref="A1:D3727"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A2576" workbookViewId="0">
-      <selection activeCell="B2610" sqref="B2610"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3818181818182" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="7.84545454545455" customWidth="1"/>
+    <col min="1" max="1" width="7.84615384615385" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="4" width="12.9272727272727" customWidth="1"/>
-    <col min="6" max="6" width="11.7272727272727"/>
-    <col min="7" max="7" width="10.5454545454545"/>
+    <col min="3" max="4" width="12.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -47973,7 +47968,7 @@
         <v>30.56065</v>
       </c>
     </row>
-    <row r="2661" spans="1:7">
+    <row r="2661" spans="1:4">
       <c r="A2661">
         <v>510113</v>
       </c>
@@ -47986,14 +47981,8 @@
       <c r="D2661">
         <v>30.883438</v>
       </c>
-      <c r="F2661">
-        <v>104.342154</v>
-      </c>
-      <c r="G2661">
-        <v>30.838113</v>
-      </c>
-    </row>
-    <row r="2662" spans="1:7">
+    </row>
+    <row r="2662" spans="1:4">
       <c r="A2662">
         <v>510114</v>
       </c>
@@ -48005,12 +47994,6 @@
       </c>
       <c r="D2662">
         <v>30.824223</v>
-      </c>
-      <c r="F2662">
-        <v>104.111543</v>
-      </c>
-      <c r="G2662">
-        <v>30.871078</v>
       </c>
     </row>
     <row r="2663" spans="1:4">
@@ -48055,7 +48038,7 @@
         <v>30.573243</v>
       </c>
     </row>
-    <row r="2666" spans="1:7">
+    <row r="2666" spans="1:4">
       <c r="A2666">
         <v>510124</v>
       </c>
@@ -48067,12 +48050,6 @@
       </c>
       <c r="D2666">
         <v>30.808752</v>
-      </c>
-      <c r="F2666">
-        <v>103.81143</v>
-      </c>
-      <c r="G2666">
-        <v>30.812588</v>
       </c>
     </row>
     <row r="2667" spans="1:4">
@@ -50021,7 +49998,7 @@
         <v>30.275619</v>
       </c>
     </row>
-    <row r="2806" spans="1:6">
+    <row r="2806" spans="1:4">
       <c r="A2806">
         <v>512081</v>
       </c>
@@ -50034,7 +50011,6 @@
       <c r="D2806">
         <v>30.390666</v>
       </c>
-      <c r="F2806" s="2"/>
     </row>
     <row r="2807" spans="1:4">
       <c r="A2807">
